--- a/Shablon/WJ324A.xlsx
+++ b/Shablon/WJ324A.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="191">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>_type</t>
@@ -658,11 +643,14 @@
   <si>
     <t>Частота нулевых биений, не более, Гц</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1041,93 +1029,63 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1136,15 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1156,11 +1105,50 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,8 +1457,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:H85"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1484,74 +1472,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="A3" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
@@ -1566,18 +1546,18 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -1592,31 +1572,31 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
+      <c r="A10" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -1626,11 +1606,11 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -1640,11 +1620,11 @@
       <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
+      <c r="A12" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="32"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -1654,13 +1634,13 @@
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1670,13 +1650,13 @@
       <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
+      <c r="A14" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1686,13 +1666,13 @@
       <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -1715,7 +1695,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1727,113 +1707,113 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="42"/>
+      <c r="A18" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="51"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72" t="s">
+      <c r="H22" s="35"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="59" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1849,7 +1829,7 @@
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1874,7 +1854,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1898,7 +1878,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1935,97 +1915,97 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="40"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="58"/>
@@ -2039,362 +2019,362 @@
       <c r="J39" s="58"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="A40" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="37"/>
       <c r="G41" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="34"/>
+      <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="37"/>
       <c r="G42" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="34"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="37"/>
       <c r="G43" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="34"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="37"/>
       <c r="G44" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="34"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="37"/>
       <c r="G45" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="34"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="37"/>
       <c r="G46" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="34"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
+      <c r="A48" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="37"/>
       <c r="G49" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="34"/>
+      <c r="J49" s="36"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="37"/>
       <c r="G50" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="34"/>
+      <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="37"/>
       <c r="G51" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="34"/>
+      <c r="J51" s="36"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="37"/>
       <c r="G52" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="34"/>
+      <c r="J52" s="36"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="37"/>
       <c r="G53" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="34"/>
+      <c r="J53" s="36"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="37"/>
       <c r="G54" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="34"/>
+      <c r="J54" s="36"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
-        <v>126</v>
+      <c r="A55" s="50" t="s">
+        <v>121</v>
       </c>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
@@ -2407,174 +2387,174 @@
       <c r="J55" s="58"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
+      <c r="A56" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
     </row>
     <row r="57" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="37"/>
       <c r="G57" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I57" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="34"/>
+      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="37"/>
       <c r="G58" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I58" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="34"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="37"/>
       <c r="G59" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="34"/>
+      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="37"/>
       <c r="G60" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="I60" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I60" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J60" s="34"/>
+      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="37"/>
       <c r="G61" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I61" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="34"/>
+      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="37"/>
       <c r="G62" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I62" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="I62" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="34"/>
+      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
@@ -2589,188 +2569,188 @@
       <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
+      <c r="A64" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
+      <c r="A65" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F66" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="37"/>
       <c r="G66" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I66" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I66" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="34"/>
+      <c r="J66" s="36"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="37"/>
       <c r="G67" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I67" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I67" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="34"/>
+      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" s="33"/>
+        <v>45</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="37"/>
       <c r="G68" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I68" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I68" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J68" s="34"/>
+      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="33"/>
+        <v>46</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="37"/>
       <c r="G69" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I69" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I69" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J69" s="34"/>
+      <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="37"/>
       <c r="G70" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I70" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I70" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="34"/>
+      <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" s="33"/>
+        <v>48</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="37"/>
       <c r="G71" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I71" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="34"/>
+      <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -2778,138 +2758,138 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
+      <c r="A73" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
     </row>
     <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="J74" s="40"/>
+      <c r="A74" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="40"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>1</v>
       </c>
-      <c r="B77" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="43">
+      <c r="B77" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="41">
         <v>0.5</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="43">
+      <c r="D77" s="42"/>
+      <c r="E77" s="41">
         <v>500</v>
       </c>
-      <c r="F77" s="44"/>
-      <c r="G77" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="43">
+      <c r="F77" s="42"/>
+      <c r="G77" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="41">
         <v>3.5</v>
       </c>
-      <c r="J77" s="44"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>2</v>
       </c>
-      <c r="B78" s="66"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="46"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="44"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>3</v>
       </c>
-      <c r="B79" s="66"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="46"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" s="40"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="44"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>4</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="48"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H80" s="40"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="46"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -2918,110 +2898,110 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="H83" s="40"/>
+      <c r="A83" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="63"/>
+      <c r="E83" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="40"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="40"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>1</v>
       </c>
-      <c r="B86" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="43">
+      <c r="B86" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="68"/>
+      <c r="E86" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="41">
         <v>100</v>
       </c>
-      <c r="H86" s="44"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>2</v>
       </c>
-      <c r="B87" s="50"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F87" s="41"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="46"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="40"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="44"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>3</v>
       </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="41"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="46"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" s="40"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="44"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>4</v>
       </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="F89" s="41"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="48"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="46"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -3029,20 +3009,20 @@
       </c>
     </row>
     <row r="94" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="35"/>
+      <c r="A94" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="59"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F94" s="37"/>
+        <v>104</v>
+      </c>
+      <c r="E94" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="61"/>
       <c r="G94" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="1"/>
@@ -3059,14 +3039,14 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="38"/>
+      <c r="A96" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="59"/>
+      <c r="C96" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="62"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -3075,59 +3055,71 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I77:J80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:D80"/>
-    <mergeCell ref="E77:F80"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:D76"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C83:D85"/>
+    <mergeCell ref="E83:F85"/>
+    <mergeCell ref="G83:H85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G86:H89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:D89"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E74:F76"/>
+    <mergeCell ref="G74:H76"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I74:J76"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A34:A38"/>
@@ -3152,82 +3144,70 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I74:J76"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I77:J80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="E77:F80"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:D76"/>
     <mergeCell ref="A73:J73"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C83:D85"/>
-    <mergeCell ref="E83:F85"/>
-    <mergeCell ref="G83:H85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G86:H89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:D89"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E74:F76"/>
-    <mergeCell ref="G74:H76"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;P страница из &amp;N</oddFooter>
   </headerFooter>

--- a/Shablon/WJ324A.xlsx
+++ b/Shablon/WJ324A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1090,22 +1090,82 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,88 +1185,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1516,8 +1516,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A70" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:H83"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1531,74 +1531,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1612,19 +1612,19 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="str">
+      <c r="A7" s="68" t="str">
         <f>"Протокол поверки № 10/"&amp;C99&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
@@ -1639,11 +1639,11 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="18" t="s">
         <v>72</v>
       </c>
@@ -1657,11 +1657,11 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
@@ -1673,11 +1673,11 @@
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -1687,11 +1687,11 @@
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="22"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -1701,11 +1701,11 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="26" t="s">
         <v>10</v>
       </c>
@@ -1717,11 +1717,11 @@
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="22" t="s">
         <v>80</v>
       </c>
@@ -1733,11 +1733,11 @@
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="18" t="s">
         <v>79</v>
       </c>
@@ -1774,112 +1774,112 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="48"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53" t="s">
+      <c r="F20" s="66"/>
+      <c r="G20" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53" t="s">
+      <c r="F22" s="66"/>
+      <c r="G22" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="53"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1980,108 +1980,108 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="49"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="12" t="s">
         <v>3</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
@@ -2090,24 +2090,24 @@
       <c r="B40" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33" t="s">
+      <c r="D40" s="39"/>
+      <c r="E40" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="29" t="s">
         <v>87</v>
       </c>
       <c r="H40" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J40" s="34"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
@@ -2116,24 +2116,24 @@
       <c r="B41" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="33"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="29" t="s">
         <v>99</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="J41" s="34"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -2142,24 +2142,24 @@
       <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="29" t="s">
         <v>101</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="J42" s="34"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -2168,24 +2168,24 @@
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="29" t="s">
         <v>103</v>
       </c>
       <c r="H43" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="J43" s="34"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -2194,24 +2194,24 @@
       <c r="B44" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="29" t="s">
         <v>105</v>
       </c>
       <c r="H44" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="34"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -2220,24 +2220,24 @@
       <c r="B45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="33"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="29" t="s">
         <v>107</v>
       </c>
       <c r="H45" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="34"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
@@ -2246,38 +2246,38 @@
       <c r="B46" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33" t="s">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="29" t="s">
         <v>197</v>
       </c>
       <c r="H46" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="J46" s="34"/>
+      <c r="J46" s="40"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
@@ -2286,24 +2286,24 @@
       <c r="B48" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33" t="s">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="29" t="s">
         <v>111</v>
       </c>
       <c r="H48" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J48" s="34"/>
+      <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
@@ -2312,24 +2312,24 @@
       <c r="B49" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33" t="s">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="29" t="s">
         <v>123</v>
       </c>
       <c r="H49" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="J49" s="34"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
@@ -2338,24 +2338,24 @@
       <c r="B50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33" t="s">
+      <c r="D50" s="39"/>
+      <c r="E50" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="29" t="s">
         <v>125</v>
       </c>
       <c r="H50" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="34"/>
+      <c r="J50" s="40"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
@@ -2364,24 +2364,24 @@
       <c r="B51" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33" t="s">
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="33"/>
+      <c r="F51" s="39"/>
       <c r="G51" s="29" t="s">
         <v>127</v>
       </c>
       <c r="H51" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="J51" s="34"/>
+      <c r="J51" s="40"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
@@ -2390,24 +2390,24 @@
       <c r="B52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33" t="s">
+      <c r="D52" s="39"/>
+      <c r="E52" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="33"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="29" t="s">
         <v>129</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="34"/>
+      <c r="J52" s="40"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -2416,24 +2416,24 @@
       <c r="B53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33" t="s">
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="33"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="29" t="s">
         <v>131</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="J53" s="34"/>
+      <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
@@ -2442,24 +2442,24 @@
       <c r="B54" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33" t="s">
+      <c r="D54" s="39"/>
+      <c r="E54" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="33"/>
+      <c r="F54" s="39"/>
       <c r="G54" s="29" t="s">
         <v>201</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="J54" s="34"/>
+      <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
@@ -2474,94 +2474,94 @@
       <c r="J55" s="32"/>
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49" t="s">
+      <c r="D56" s="42"/>
+      <c r="E56" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49" t="s">
+      <c r="F56" s="42"/>
+      <c r="G56" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49" t="s">
+      <c r="H56" s="42"/>
+      <c r="I56" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J56" s="49"/>
+      <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="28" t="s">
         <v>3</v>
       </c>
       <c r="H60" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
     </row>
     <row r="62" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
@@ -2570,24 +2570,24 @@
       <c r="B62" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="29" t="s">
         <v>165</v>
       </c>
       <c r="H62" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="I62" s="34" t="s">
+      <c r="I62" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J62" s="34"/>
+      <c r="J62" s="40"/>
     </row>
     <row r="63" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
@@ -2596,24 +2596,24 @@
       <c r="B63" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33" t="s">
+      <c r="D63" s="39"/>
+      <c r="E63" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="F63" s="33"/>
+      <c r="F63" s="39"/>
       <c r="G63" s="29" t="s">
         <v>166</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="J63" s="34"/>
+      <c r="J63" s="40"/>
     </row>
     <row r="64" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -2622,24 +2622,24 @@
       <c r="B64" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33" t="s">
+      <c r="D64" s="39"/>
+      <c r="E64" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="33"/>
+      <c r="F64" s="39"/>
       <c r="G64" s="29" t="s">
         <v>167</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="J64" s="34"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
@@ -2648,24 +2648,24 @@
       <c r="B65" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33" t="s">
+      <c r="D65" s="39"/>
+      <c r="E65" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="F65" s="33"/>
+      <c r="F65" s="39"/>
       <c r="G65" s="29" t="s">
         <v>168</v>
       </c>
       <c r="H65" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="I65" s="34" t="s">
+      <c r="I65" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="J65" s="34"/>
+      <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
@@ -2674,24 +2674,24 @@
       <c r="B66" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33" t="s">
+      <c r="D66" s="39"/>
+      <c r="E66" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="33"/>
+      <c r="F66" s="39"/>
       <c r="G66" s="29" t="s">
         <v>169</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J66" s="34"/>
+      <c r="J66" s="40"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
@@ -2700,24 +2700,24 @@
       <c r="B67" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33" t="s">
+      <c r="D67" s="39"/>
+      <c r="E67" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="33"/>
+      <c r="F67" s="39"/>
       <c r="G67" s="29" t="s">
         <v>170</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="J67" s="34"/>
+      <c r="J67" s="40"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
@@ -2726,38 +2726,38 @@
       <c r="B68" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="33"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="29" t="s">
         <v>205</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="J68" s="34"/>
+      <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
@@ -2766,24 +2766,24 @@
       <c r="B70" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="33"/>
+      <c r="F70" s="39"/>
       <c r="G70" s="29" t="s">
         <v>177</v>
       </c>
       <c r="H70" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J70" s="34"/>
+      <c r="J70" s="40"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
@@ -2792,24 +2792,24 @@
       <c r="B71" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33" t="s">
+      <c r="D71" s="39"/>
+      <c r="E71" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F71" s="33"/>
+      <c r="F71" s="39"/>
       <c r="G71" s="29" t="s">
         <v>178</v>
       </c>
       <c r="H71" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="I71" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="J71" s="34"/>
+      <c r="J71" s="40"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
@@ -2818,24 +2818,24 @@
       <c r="B72" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33" t="s">
+      <c r="D72" s="39"/>
+      <c r="E72" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="33"/>
+      <c r="F72" s="39"/>
       <c r="G72" s="29" t="s">
         <v>179</v>
       </c>
       <c r="H72" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="J72" s="34"/>
+      <c r="J72" s="40"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
@@ -2844,24 +2844,24 @@
       <c r="B73" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33" t="s">
+      <c r="D73" s="39"/>
+      <c r="E73" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F73" s="33"/>
+      <c r="F73" s="39"/>
       <c r="G73" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H73" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="I73" s="34" t="s">
+      <c r="I73" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="J73" s="34"/>
+      <c r="J73" s="40"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
@@ -2870,24 +2870,24 @@
       <c r="B74" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33" t="s">
+      <c r="D74" s="39"/>
+      <c r="E74" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="F74" s="33"/>
+      <c r="F74" s="39"/>
       <c r="G74" s="29" t="s">
         <v>181</v>
       </c>
       <c r="H74" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="I74" s="34" t="s">
+      <c r="I74" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J74" s="34"/>
+      <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
@@ -2896,24 +2896,24 @@
       <c r="B75" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33" t="s">
+      <c r="D75" s="39"/>
+      <c r="E75" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="33"/>
+      <c r="F75" s="39"/>
       <c r="G75" s="29" t="s">
         <v>182</v>
       </c>
       <c r="H75" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I75" s="34" t="s">
+      <c r="I75" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="J75" s="34"/>
+      <c r="J75" s="40"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
@@ -2922,24 +2922,24 @@
       <c r="B76" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33" t="s">
+      <c r="D76" s="39"/>
+      <c r="E76" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="F76" s="33"/>
+      <c r="F76" s="39"/>
       <c r="G76" s="29" t="s">
         <v>209</v>
       </c>
       <c r="H76" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="I76" s="34" t="s">
+      <c r="I76" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="J76" s="34"/>
+      <c r="J76" s="40"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
@@ -2954,138 +2954,138 @@
       <c r="J77" s="32"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
     </row>
     <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="49" t="s">
+      <c r="A79" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49" t="s">
+      <c r="D79" s="42"/>
+      <c r="E79" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49" t="s">
+      <c r="F79" s="42"/>
+      <c r="G79" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49" t="s">
+      <c r="H79" s="42"/>
+      <c r="I79" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="49"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>1</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="59">
         <v>0.5</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="39">
+      <c r="D82" s="60"/>
+      <c r="E82" s="59">
         <v>500</v>
       </c>
-      <c r="F82" s="40"/>
-      <c r="G82" s="35" t="s">
+      <c r="F82" s="60"/>
+      <c r="G82" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H82" s="35"/>
-      <c r="I82" s="39">
+      <c r="H82" s="49"/>
+      <c r="I82" s="59">
         <v>1.75</v>
       </c>
-      <c r="J82" s="40"/>
+      <c r="J82" s="60"/>
     </row>
     <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>2</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="35" t="s">
+      <c r="B83" s="70"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="42"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="62"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
         <v>3</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="35" t="s">
+      <c r="B84" s="70"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="42"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="62"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A85" s="27">
         <v>4</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="35" t="s">
+      <c r="B85" s="71"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="35"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="64"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -3093,112 +3093,112 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="49" t="s">
+      <c r="D88" s="48"/>
+      <c r="E88" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49" t="s">
+      <c r="F88" s="42"/>
+      <c r="G88" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H88" s="49"/>
+      <c r="H88" s="42"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="49"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>1</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D91" s="62"/>
-      <c r="E91" s="35" t="s">
+      <c r="D91" s="54"/>
+      <c r="E91" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="39">
+      <c r="F91" s="49"/>
+      <c r="G91" s="59">
         <v>100</v>
       </c>
-      <c r="H91" s="40"/>
+      <c r="H91" s="60"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>2</v>
       </c>
-      <c r="B92" s="59"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="35" t="s">
+      <c r="B92" s="51"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="42"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="62"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
         <v>3</v>
       </c>
-      <c r="B93" s="59"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="35" t="s">
+      <c r="B93" s="51"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="35"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A94" s="27">
         <v>4</v>
       </c>
-      <c r="B94" s="60"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="35" t="s">
+      <c r="B94" s="52"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="44"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="64"/>
     </row>
     <row r="97" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="55" t="s">
+      <c r="A97" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B97" s="55"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="23"/>
       <c r="D97" s="8"/>
       <c r="E97" s="10"/>
@@ -3207,32 +3207,32 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B98" s="55"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="8"/>
       <c r="D98" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E98" s="69" t="s">
+      <c r="E98" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="70"/>
+      <c r="F98" s="37"/>
       <c r="G98" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
+      <c r="A99" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="56" t="s">
+      <c r="B99" s="35"/>
+      <c r="C99" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="56"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3240,6 +3240,146 @@
     </row>
   </sheetData>
   <mergeCells count="164">
+    <mergeCell ref="I82:J85"/>
+    <mergeCell ref="I79:J81"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:D60"/>
+    <mergeCell ref="E56:F60"/>
+    <mergeCell ref="G56:H59"/>
+    <mergeCell ref="I56:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:D81"/>
+    <mergeCell ref="E79:F81"/>
+    <mergeCell ref="G79:H81"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:D85"/>
+    <mergeCell ref="E82:F85"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G34:H37"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C88:D90"/>
+    <mergeCell ref="E88:F90"/>
+    <mergeCell ref="G88:H90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:D94"/>
+    <mergeCell ref="G91:H94"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="E34:F38"/>
+    <mergeCell ref="I34:J38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="I50:J50"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -3264,146 +3404,6 @@
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G34:H37"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C88:D90"/>
-    <mergeCell ref="E88:F90"/>
-    <mergeCell ref="G88:H90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:D94"/>
-    <mergeCell ref="G91:H94"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="E34:F38"/>
-    <mergeCell ref="I34:J38"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:D81"/>
-    <mergeCell ref="E79:F81"/>
-    <mergeCell ref="G79:H81"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:D60"/>
-    <mergeCell ref="E56:F60"/>
-    <mergeCell ref="G56:H59"/>
-    <mergeCell ref="I56:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:D85"/>
-    <mergeCell ref="E82:F85"/>
-    <mergeCell ref="I82:J85"/>
-    <mergeCell ref="I79:J81"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.77083333333333337" header="0.51181102362204722" footer="0.51181102362204722"/>
